--- a/biology/Zoologie/Aeshna_heterofasciata/Aeshna_heterofasciata.xlsx
+++ b/biology/Zoologie/Aeshna_heterofasciata/Aeshna_heterofasciata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aeschna heterofasciata
@@ -513,13 +525,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aeschna heterofasciata est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse, sous le protonyme d’Aeshna heterofasciata[1],[2][2]. 
-Fossiles
-Cet holotype, R786, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) fait partie de la collection du musée d'histoire naturelle de Bâle[note 1] en Suisse et vient du gisement de Kleinkembs[1].
-Étymologie
-L'épithète spécifique heterofasciata signifie en latin « droit bandé ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aeschna heterofasciata est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse, sous le protonyme d’Aeshna heterofasciata,. 
 </t>
         </is>
       </c>
@@ -545,17 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-L'holotype mâle n'est représenté que par « la partie moyenne et l'extrémité de l'abdomen. »…[1]. 
-Dimensions
-La longueur conservée est de 32 mm et la longueur totale estimée est de 60 mm[1]
-Affinités
-« La conformation de l'abdomen est assez caractéristique pour permettre d'y reconnaître une Libellule du groupe des Aeschnidae. La détermination générique est plus difficile, car les ailes manquent. On ne peut donc procéder que par comparaison avec des formes actuelles semblables ; nous n'avons pas retrouvé de dessins identiques. La forme de l'abdomen rappelle celle du g. Gomphus, mais l'ornementation est très différente. Le g. Aeschna est celui qui répond le mieux aux caractères de notre échantillon. »[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet holotype, R786, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) fait partie de la collection du musée d'histoire naturelle de Bâle[note 1] en Suisse et vient du gisement de Kleinkembs.
 </t>
         </is>
       </c>
@@ -581,13 +592,164 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique heterofasciata signifie en latin « droit bandé ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aeshna_heterofasciata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeshna_heterofasciata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mâle n'est représenté que par « la partie moyenne et l'extrémité de l'abdomen. »…. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aeshna_heterofasciata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeshna_heterofasciata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur conservée est de 32 mm et la longueur totale estimée est de 60 mm
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aeshna_heterofasciata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeshna_heterofasciata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« La conformation de l'abdomen est assez caractéristique pour permettre d'y reconnaître une Libellule du groupe des Aeschnidae. La détermination générique est plus difficile, car les ailes manquent. On ne peut donc procéder que par comparaison avec des formes actuelles semblables ; nous n'avons pas retrouvé de dessins identiques. La forme de l'abdomen rappelle celle du g. Gomphus, mais l'ornementation est très différente. Le g. Aeschna est celui qui répond le mieux aux caractères de notre échantillon. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aeshna_heterofasciata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeshna_heterofasciata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Les Aeschnidae vivent près des cours d'eau. On les trouve dans toutes les régions du globe. Les Aeschninae dominent dans les régions tropicales. »[1].
+« Les Aeschnidae vivent près des cours d'eau. On les trouve dans toutes les régions du globe. Les Aeschninae dominent dans les régions tropicales. ».
 </t>
         </is>
       </c>
